--- a/URS/DbLayouts/L2-業務作業/FacRelation.xlsx
+++ b/URS/DbLayouts/L2-業務作業/FacRelation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -161,40 +161,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">CreditSysNo = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKeyAll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustUKey =  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditSysNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditSysNo,CustUKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacRelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CreditSysNoAll</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CreditSysNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKeyAll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustUKey =  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreditSysNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreditSysNo,CustUKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacRelation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -790,7 +790,7 @@
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>36</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>20</v>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>34</v>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>32</v>
@@ -1063,7 +1063,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1087,24 +1087,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
